--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang1/02.XuLyBH/XLBH2301_HayHue.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang1/02.XuLyBH/XLBH2301_HayHue.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="83">
   <si>
     <t>STT</t>
   </si>
@@ -258,10 +258,31 @@
     <t>Đổi mới ( có xác nhận từ HTKT) thay motion nhập kho</t>
   </si>
   <si>
-    <t>DM</t>
-  </si>
-  <si>
     <t>Tùng</t>
+  </si>
+  <si>
+    <t>IMEI mới: 860906041229441</t>
+  </si>
+  <si>
+    <t>Thiết bị không chốt GSM</t>
+  </si>
+  <si>
+    <t>Xử lý lại anten GSM, nâng cấp FW module GSM</t>
+  </si>
+  <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t>PC+PM</t>
+  </si>
+  <si>
+    <t>LK,NCFW</t>
+  </si>
+  <si>
+    <t>Le4.1.04.BOO01.221222</t>
+  </si>
+  <si>
+    <t>ĐM</t>
   </si>
 </sst>
 </file>
@@ -467,7 +488,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -722,6 +743,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1030,8 +1069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView showZeros="0" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1243,10 +1282,12 @@
       <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="63">
+      <c r="B6" s="86">
         <v>44930</v>
       </c>
-      <c r="C6" s="63"/>
+      <c r="C6" s="86">
+        <v>44931</v>
+      </c>
       <c r="D6" s="66" t="s">
         <v>69</v>
       </c>
@@ -1257,22 +1298,36 @@
       <c r="G6" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="H6" s="37"/>
-      <c r="I6" s="54" t="s">
+      <c r="H6" s="66"/>
+      <c r="I6" s="87" t="s">
         <v>67</v>
       </c>
-      <c r="J6" s="39" t="s">
+      <c r="J6" s="88" t="s">
         <v>66</v>
       </c>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="37"/>
-      <c r="S6" s="3"/>
+      <c r="K6" s="88" t="s">
+        <v>81</v>
+      </c>
+      <c r="L6" s="88" t="s">
+        <v>76</v>
+      </c>
+      <c r="M6" s="88" t="s">
+        <v>77</v>
+      </c>
+      <c r="N6" s="89"/>
+      <c r="O6" s="88" t="s">
+        <v>78</v>
+      </c>
+      <c r="P6" s="89" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q6" s="90" t="s">
+        <v>79</v>
+      </c>
+      <c r="R6" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="S6" s="91"/>
       <c r="T6" s="64"/>
       <c r="U6" s="78" t="s">
         <v>18</v>
@@ -1286,10 +1341,12 @@
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="63">
+      <c r="B7" s="86">
         <v>44930</v>
       </c>
-      <c r="C7" s="63"/>
+      <c r="C7" s="86">
+        <v>44931</v>
+      </c>
       <c r="D7" s="66" t="s">
         <v>69</v>
       </c>
@@ -1300,22 +1357,36 @@
       <c r="G7" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="H7" s="37"/>
-      <c r="I7" s="54" t="s">
-        <v>68</v>
-      </c>
-      <c r="J7" s="39" t="s">
+      <c r="H7" s="66"/>
+      <c r="I7" s="87" t="s">
+        <v>67</v>
+      </c>
+      <c r="J7" s="88" t="s">
         <v>66</v>
       </c>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="37"/>
-      <c r="S7" s="3"/>
+      <c r="K7" s="88" t="s">
+        <v>81</v>
+      </c>
+      <c r="L7" s="88" t="s">
+        <v>76</v>
+      </c>
+      <c r="M7" s="88" t="s">
+        <v>77</v>
+      </c>
+      <c r="N7" s="89"/>
+      <c r="O7" s="88" t="s">
+        <v>78</v>
+      </c>
+      <c r="P7" s="89" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q7" s="90" t="s">
+        <v>79</v>
+      </c>
+      <c r="R7" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="S7" s="91"/>
       <c r="T7" s="64"/>
       <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
@@ -1763,7 +1834,7 @@
       </c>
       <c r="V22" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W22" s="13"/>
     </row>
@@ -2040,7 +2111,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -2168,7 +2239,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -2232,7 +2303,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -3052,10 +3123,12 @@
       <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="63">
-        <v>44565</v>
-      </c>
-      <c r="C6" s="63"/>
+      <c r="B6" s="86">
+        <v>44930</v>
+      </c>
+      <c r="C6" s="86">
+        <v>45235</v>
+      </c>
       <c r="D6" s="66" t="s">
         <v>45</v>
       </c>
@@ -3068,34 +3141,36 @@
       <c r="G6" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="H6" s="37"/>
-      <c r="I6" s="54" t="s">
+      <c r="H6" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="I6" s="87" t="s">
         <v>68</v>
       </c>
-      <c r="J6" s="39" t="s">
+      <c r="J6" s="88" t="s">
         <v>71</v>
       </c>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39" t="s">
+      <c r="K6" s="88"/>
+      <c r="L6" s="88" t="s">
         <v>72</v>
       </c>
-      <c r="M6" s="39" t="s">
+      <c r="M6" s="88" t="s">
         <v>73</v>
       </c>
-      <c r="N6" s="1"/>
-      <c r="O6" s="39" t="s">
+      <c r="N6" s="89"/>
+      <c r="O6" s="88" t="s">
+        <v>82</v>
+      </c>
+      <c r="P6" s="89" t="s">
         <v>74</v>
       </c>
-      <c r="P6" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q6" s="2" t="s">
+      <c r="Q6" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="R6" s="37" t="s">
+      <c r="R6" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="S6" s="3"/>
+      <c r="S6" s="91"/>
       <c r="T6" s="69"/>
       <c r="U6" s="78" t="s">
         <v>18</v>
@@ -4129,7 +4204,7 @@
       </c>
       <c r="V40" s="9">
         <f>COUNTIF($O$6:$O$51,"*DM*")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W40" s="13"/>
     </row>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang1/02.XuLyBH/XLBH2301_HayHue.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang1/02.XuLyBH/XLBH2301_HayHue.xlsx
@@ -697,6 +697,48 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -715,53 +757,11 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1102,43 +1102,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="85"/>
+      <c r="V1" s="85"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="74" t="s">
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="88" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="74"/>
+      <c r="F2" s="88"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -1183,58 +1183,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="70"/>
-      <c r="L4" s="76" t="s">
+      <c r="K4" s="84"/>
+      <c r="L4" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="76" t="s">
+      <c r="M4" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="76" t="s">
+      <c r="N4" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="Q4" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="81" t="s">
         <v>53</v>
       </c>
       <c r="S4" s="83" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="84" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
+      <c r="A5" s="89"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -1265,27 +1265,27 @@
       <c r="K5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="77"/>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="77"/>
+      <c r="L5" s="82"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="80"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
       <c r="S5" s="83"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
+      <c r="U5" s="84"/>
+      <c r="V5" s="84"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="86">
+      <c r="B6" s="70">
         <v>44930</v>
       </c>
-      <c r="C6" s="86">
+      <c r="C6" s="70">
         <v>44931</v>
       </c>
       <c r="D6" s="66" t="s">
@@ -1299,37 +1299,37 @@
         <v>65</v>
       </c>
       <c r="H6" s="66"/>
-      <c r="I6" s="87" t="s">
+      <c r="I6" s="71" t="s">
         <v>67</v>
       </c>
-      <c r="J6" s="88" t="s">
+      <c r="J6" s="72" t="s">
         <v>66</v>
       </c>
-      <c r="K6" s="88" t="s">
+      <c r="K6" s="72" t="s">
         <v>81</v>
       </c>
-      <c r="L6" s="88" t="s">
+      <c r="L6" s="72" t="s">
         <v>76</v>
       </c>
-      <c r="M6" s="88" t="s">
+      <c r="M6" s="72" t="s">
         <v>77</v>
       </c>
-      <c r="N6" s="89"/>
-      <c r="O6" s="88" t="s">
+      <c r="N6" s="73"/>
+      <c r="O6" s="72" t="s">
         <v>78</v>
       </c>
-      <c r="P6" s="89" t="s">
+      <c r="P6" s="73" t="s">
         <v>74</v>
       </c>
-      <c r="Q6" s="90" t="s">
+      <c r="Q6" s="74" t="s">
         <v>79</v>
       </c>
       <c r="R6" s="66" t="s">
         <v>80</v>
       </c>
-      <c r="S6" s="91"/>
+      <c r="S6" s="75"/>
       <c r="T6" s="64"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="76" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1341,10 +1341,10 @@
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="86">
+      <c r="B7" s="70">
         <v>44930</v>
       </c>
-      <c r="C7" s="86">
+      <c r="C7" s="70">
         <v>44931</v>
       </c>
       <c r="D7" s="66" t="s">
@@ -1358,37 +1358,37 @@
         <v>65</v>
       </c>
       <c r="H7" s="66"/>
-      <c r="I7" s="87" t="s">
+      <c r="I7" s="71" t="s">
         <v>67</v>
       </c>
-      <c r="J7" s="88" t="s">
+      <c r="J7" s="72" t="s">
         <v>66</v>
       </c>
-      <c r="K7" s="88" t="s">
+      <c r="K7" s="72" t="s">
         <v>81</v>
       </c>
-      <c r="L7" s="88" t="s">
+      <c r="L7" s="72" t="s">
         <v>76</v>
       </c>
-      <c r="M7" s="88" t="s">
+      <c r="M7" s="72" t="s">
         <v>77</v>
       </c>
-      <c r="N7" s="89"/>
-      <c r="O7" s="88" t="s">
+      <c r="N7" s="73"/>
+      <c r="O7" s="72" t="s">
         <v>78</v>
       </c>
-      <c r="P7" s="89" t="s">
+      <c r="P7" s="73" t="s">
         <v>74</v>
       </c>
-      <c r="Q7" s="90" t="s">
+      <c r="Q7" s="74" t="s">
         <v>79</v>
       </c>
       <c r="R7" s="66" t="s">
         <v>80</v>
       </c>
-      <c r="S7" s="91"/>
+      <c r="S7" s="75"/>
       <c r="T7" s="64"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="77"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1417,7 +1417,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="64"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="77"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1446,7 +1446,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="64"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="77"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1475,7 +1475,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="64"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="77"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1504,7 +1504,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="64"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="77"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1533,7 +1533,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="64"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="76" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1564,7 +1564,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="64"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="77"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1593,7 +1593,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="64"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="77"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1622,7 +1622,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="77"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1651,7 +1651,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="78"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -2882,13 +2882,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2900,6 +2893,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2911,7 +2911,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2943,43 +2943,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="85"/>
+      <c r="V1" s="85"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="74" t="s">
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="88" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="74"/>
+      <c r="F2" s="88"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -3024,58 +3024,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="70"/>
-      <c r="L4" s="76" t="s">
+      <c r="K4" s="84"/>
+      <c r="L4" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="76" t="s">
+      <c r="M4" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="76" t="s">
+      <c r="N4" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="Q4" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="81" t="s">
         <v>53</v>
       </c>
       <c r="S4" s="83" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="84" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
+      <c r="A5" s="89"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -3106,28 +3106,28 @@
       <c r="K5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="77"/>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="77"/>
+      <c r="L5" s="82"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="80"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
       <c r="S5" s="83"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
+      <c r="U5" s="84"/>
+      <c r="V5" s="84"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="86">
+      <c r="B6" s="70">
         <v>44930</v>
       </c>
-      <c r="C6" s="86">
-        <v>45235</v>
+      <c r="C6" s="70">
+        <v>44931</v>
       </c>
       <c r="D6" s="66" t="s">
         <v>45</v>
@@ -3144,35 +3144,35 @@
       <c r="H6" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="I6" s="87" t="s">
+      <c r="I6" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="J6" s="88" t="s">
+      <c r="J6" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="K6" s="88"/>
-      <c r="L6" s="88" t="s">
+      <c r="K6" s="72"/>
+      <c r="L6" s="72" t="s">
         <v>72</v>
       </c>
-      <c r="M6" s="88" t="s">
+      <c r="M6" s="72" t="s">
         <v>73</v>
       </c>
-      <c r="N6" s="89"/>
-      <c r="O6" s="88" t="s">
+      <c r="N6" s="73"/>
+      <c r="O6" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="P6" s="89" t="s">
+      <c r="P6" s="73" t="s">
         <v>74</v>
       </c>
-      <c r="Q6" s="90" t="s">
+      <c r="Q6" s="74" t="s">
         <v>18</v>
       </c>
       <c r="R6" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="S6" s="91"/>
+      <c r="S6" s="75"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="76" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3203,7 +3203,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="77"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3232,7 +3232,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="77"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3261,7 +3261,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="77"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3290,7 +3290,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="77"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3319,7 +3319,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="77"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3348,7 +3348,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="76" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3379,7 +3379,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="77"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3408,7 +3408,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="77"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3437,7 +3437,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="77"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3466,7 +3466,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="78"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -4694,13 +4694,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4712,6 +4705,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4755,43 +4755,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="85"/>
+      <c r="V1" s="85"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="85" t="s">
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="90" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="85"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -4836,58 +4836,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="76" t="s">
+      <c r="L4" s="84"/>
+      <c r="M4" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="76" t="s">
+      <c r="N4" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="70" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="84" t="s">
+      <c r="P4" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="70" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="70" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
       <c r="S4" s="83" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="84" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
+      <c r="A5" s="89"/>
       <c r="B5" s="42" t="s">
         <v>1</v>
       </c>
@@ -4912,23 +4912,23 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="84"/>
       <c r="K5" s="42" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
       <c r="S5" s="83"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
+      <c r="U5" s="84"/>
+      <c r="V5" s="84"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4954,7 +4954,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="41"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="76" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -4985,7 +4985,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="41"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="77"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5014,7 +5014,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="41"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="77"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5043,7 +5043,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="41"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="77"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5072,7 +5072,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="41"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="77"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5101,7 +5101,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="41"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="77"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -5130,7 +5130,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="41"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="76" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -5161,7 +5161,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="41"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="77"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -5190,7 +5190,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="41"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="77"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -5219,7 +5219,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="77"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -5248,7 +5248,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="78"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -6479,6 +6479,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6490,13 +6497,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
